--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3463.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3463.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.399985271246516</v>
+        <v>1.074304938316345</v>
       </c>
       <c r="B1">
-        <v>1.521629418813459</v>
+        <v>1.793997406959534</v>
       </c>
       <c r="C1">
-        <v>1.778478907886175</v>
+        <v>5.279239177703857</v>
       </c>
       <c r="D1">
-        <v>2.964003903242511</v>
+        <v>0.7954637408256531</v>
       </c>
       <c r="E1">
-        <v>8.081904319543918</v>
+        <v>0.4952170550823212</v>
       </c>
     </row>
   </sheetData>
